--- a/data/trans_orig/P36_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P36_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CFF16632-8C7B-4FF7-9C6E-C49CF101FC6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{91871AC9-852B-42AE-A053-5125BDE5584A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7608F105-9BEB-47D6-BB4E-3B8569DEE399}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A9676BEC-6099-4763-B5BC-F1BFBD645528}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="172">
   <si>
     <t>Población según adherencia a la dieta mediterránea en 2023 (Tasa respuesta: 94,27%)</t>
   </si>
@@ -71,55 +71,55 @@
     <t>49,55%</t>
   </si>
   <si>
-    <t>38,97%</t>
-  </si>
-  <si>
-    <t>60,79%</t>
+    <t>39,01%</t>
+  </si>
+  <si>
+    <t>60,01%</t>
   </si>
   <si>
     <t>47,6%</t>
   </si>
   <si>
-    <t>39,77%</t>
-  </si>
-  <si>
-    <t>55,44%</t>
+    <t>39,34%</t>
+  </si>
+  <si>
+    <t>55,22%</t>
   </si>
   <si>
     <t>48,46%</t>
   </si>
   <si>
-    <t>42,42%</t>
-  </si>
-  <si>
-    <t>54,5%</t>
+    <t>41,92%</t>
+  </si>
+  <si>
+    <t>55,1%</t>
   </si>
   <si>
     <t>49,48%</t>
   </si>
   <si>
-    <t>38,48%</t>
-  </si>
-  <si>
-    <t>60,14%</t>
+    <t>38,74%</t>
+  </si>
+  <si>
+    <t>60,24%</t>
   </si>
   <si>
     <t>50,18%</t>
   </si>
   <si>
-    <t>42,33%</t>
-  </si>
-  <si>
-    <t>57,83%</t>
+    <t>42,51%</t>
+  </si>
+  <si>
+    <t>58,66%</t>
   </si>
   <si>
     <t>49,87%</t>
   </si>
   <si>
-    <t>43,99%</t>
-  </si>
-  <si>
-    <t>56,11%</t>
+    <t>43,33%</t>
+  </si>
+  <si>
+    <t>56,47%</t>
   </si>
   <si>
     <t>0,97%</t>
@@ -128,25 +128,25 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>5,16%</t>
+    <t>4,85%</t>
   </si>
   <si>
     <t>2,21%</t>
   </si>
   <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
   </si>
   <si>
     <t>1,67%</t>
   </si>
   <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
   </si>
   <si>
     <t>100%</t>
@@ -158,52 +158,49 @@
     <t>36,44%</t>
   </si>
   <si>
-    <t>32,32%</t>
-  </si>
-  <si>
-    <t>41,6%</t>
+    <t>32,41%</t>
+  </si>
+  <si>
+    <t>41,14%</t>
   </si>
   <si>
     <t>36,28%</t>
   </si>
   <si>
-    <t>32,91%</t>
-  </si>
-  <si>
-    <t>39,65%</t>
+    <t>32,98%</t>
+  </si>
+  <si>
+    <t>39,66%</t>
   </si>
   <si>
     <t>36,36%</t>
   </si>
   <si>
-    <t>33,38%</t>
-  </si>
-  <si>
-    <t>39,2%</t>
+    <t>33,5%</t>
+  </si>
+  <si>
+    <t>39,25%</t>
   </si>
   <si>
     <t>54,78%</t>
   </si>
   <si>
-    <t>49,77%</t>
-  </si>
-  <si>
-    <t>59,43%</t>
+    <t>50,44%</t>
+  </si>
+  <si>
+    <t>59,37%</t>
   </si>
   <si>
     <t>53,27%</t>
   </si>
   <si>
-    <t>49,75%</t>
-  </si>
-  <si>
-    <t>56,78%</t>
+    <t>49,61%</t>
   </si>
   <si>
     <t>53,99%</t>
   </si>
   <si>
-    <t>50,99%</t>
+    <t>51,07%</t>
   </si>
   <si>
     <t>56,81%</t>
@@ -212,112 +209,112 @@
     <t>8,78%</t>
   </si>
   <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
   </si>
   <si>
     <t>10,45%</t>
   </si>
   <si>
-    <t>8,48%</t>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>32,56%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>30,66%</t>
+  </si>
+  <si>
+    <t>58,75%</t>
+  </si>
+  <si>
+    <t>54,73%</t>
+  </si>
+  <si>
+    <t>65,97%</t>
+  </si>
+  <si>
+    <t>55,43%</t>
+  </si>
+  <si>
+    <t>52,58%</t>
+  </si>
+  <si>
+    <t>57,94%</t>
+  </si>
+  <si>
+    <t>57,07%</t>
+  </si>
+  <si>
+    <t>54,59%</t>
+  </si>
+  <si>
+    <t>60,91%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
   </si>
   <si>
     <t>12,81%</t>
   </si>
   <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>32,51%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
-  </si>
-  <si>
-    <t>30,42%</t>
-  </si>
-  <si>
-    <t>58,75%</t>
-  </si>
-  <si>
-    <t>54,47%</t>
-  </si>
-  <si>
-    <t>65,92%</t>
-  </si>
-  <si>
-    <t>55,43%</t>
-  </si>
-  <si>
-    <t>52,35%</t>
-  </si>
-  <si>
-    <t>58,01%</t>
-  </si>
-  <si>
-    <t>57,07%</t>
-  </si>
-  <si>
-    <t>54,61%</t>
-  </si>
-  <si>
-    <t>61,58%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
+    <t>16,41%</t>
   </si>
   <si>
     <t>mas de 50</t>
@@ -326,61 +323,61 @@
     <t>30,14%</t>
   </si>
   <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>34,24%</t>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>33,96%</t>
   </si>
   <si>
     <t>40,48%</t>
   </si>
   <si>
-    <t>29,86%</t>
-  </si>
-  <si>
-    <t>63,21%</t>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>66,37%</t>
   </si>
   <si>
     <t>35,86%</t>
   </si>
   <si>
-    <t>29,8%</t>
-  </si>
-  <si>
-    <t>51,36%</t>
+    <t>29,94%</t>
+  </si>
+  <si>
+    <t>51,01%</t>
   </si>
   <si>
     <t>57,54%</t>
   </si>
   <si>
-    <t>52,99%</t>
-  </si>
-  <si>
-    <t>62,09%</t>
+    <t>53,06%</t>
+  </si>
+  <si>
+    <t>61,86%</t>
   </si>
   <si>
     <t>51,12%</t>
   </si>
   <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>60,39%</t>
-  </si>
-  <si>
-    <t>41,04%</t>
-  </si>
-  <si>
-    <t>59,2%</t>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>60,04%</t>
+  </si>
+  <si>
+    <t>41,56%</t>
+  </si>
+  <si>
+    <t>59,55%</t>
   </si>
   <si>
     <t>12,32%</t>
   </si>
   <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
   </si>
   <si>
     <t>8,4%</t>
@@ -389,16 +386,16 @@
     <t>5,14%</t>
   </si>
   <si>
-    <t>10,73%</t>
+    <t>10,66%</t>
   </si>
   <si>
     <t>10,15%</t>
   </si>
   <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -407,100 +404,94 @@
     <t>32,95%</t>
   </si>
   <si>
-    <t>29,96%</t>
-  </si>
-  <si>
-    <t>36,37%</t>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>36,11%</t>
   </si>
   <si>
     <t>33,52%</t>
   </si>
   <si>
-    <t>30,87%</t>
-  </si>
-  <si>
-    <t>36,31%</t>
+    <t>30,62%</t>
+  </si>
+  <si>
+    <t>36,42%</t>
   </si>
   <si>
     <t>33,26%</t>
   </si>
   <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>35,46%</t>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>35,41%</t>
   </si>
   <si>
     <t>54,14%</t>
   </si>
   <si>
-    <t>50,62%</t>
-  </si>
-  <si>
-    <t>57,47%</t>
+    <t>50,59%</t>
   </si>
   <si>
     <t>54,25%</t>
   </si>
   <si>
-    <t>51,22%</t>
-  </si>
-  <si>
-    <t>57,59%</t>
+    <t>57,12%</t>
   </si>
   <si>
     <t>54,2%</t>
   </si>
   <si>
-    <t>51,78%</t>
-  </si>
-  <si>
-    <t>56,37%</t>
+    <t>52,0%</t>
+  </si>
+  <si>
+    <t>56,54%</t>
   </si>
   <si>
     <t>12,91%</t>
   </si>
   <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
   </si>
   <si>
     <t>12,23%</t>
   </si>
   <si>
-    <t>10,28%</t>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
   </si>
   <si>
     <t>14,18%</t>
   </si>
   <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
     <t>31,53%</t>
   </si>
   <si>
-    <t>29,43%</t>
-  </si>
-  <si>
-    <t>33,36%</t>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>33,61%</t>
   </si>
   <si>
     <t>34,98%</t>
   </si>
   <si>
-    <t>32,45%</t>
-  </si>
-  <si>
-    <t>43,26%</t>
+    <t>32,4%</t>
+  </si>
+  <si>
+    <t>42,35%</t>
   </si>
   <si>
     <t>33,37%</t>
@@ -509,58 +500,55 @@
     <t>31,72%</t>
   </si>
   <si>
-    <t>37,15%</t>
+    <t>36,97%</t>
   </si>
   <si>
     <t>56,24%</t>
   </si>
   <si>
-    <t>54,37%</t>
-  </si>
-  <si>
-    <t>58,97%</t>
+    <t>54,16%</t>
+  </si>
+  <si>
+    <t>58,77%</t>
   </si>
   <si>
     <t>53,58%</t>
   </si>
   <si>
-    <t>46,87%</t>
-  </si>
-  <si>
-    <t>55,85%</t>
+    <t>47,83%</t>
+  </si>
+  <si>
+    <t>55,9%</t>
   </si>
   <si>
     <t>54,82%</t>
   </si>
   <si>
-    <t>51,88%</t>
+    <t>51,81%</t>
   </si>
   <si>
     <t>56,42%</t>
   </si>
   <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
   </si>
   <si>
     <t>11,44%</t>
   </si>
   <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
   </si>
   <si>
     <t>11,81%</t>
   </si>
   <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
+    <t>10,9%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -975,7 +963,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46939C96-097A-4DED-A2B4-61B818A87F6C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2E6871A-DE96-4389-ACFB-37D669310F87}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1377,7 +1365,7 @@
         <v>52</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="M9" s="7">
         <v>842</v>
@@ -1386,13 +1374,13 @@
         <v>576628</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1407,13 +1395,13 @@
         <v>44597</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="H10" s="7">
         <v>84</v>
@@ -1422,13 +1410,13 @@
         <v>58547</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="M10" s="7">
         <v>125</v>
@@ -1437,13 +1425,13 @@
         <v>103144</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1499,7 +1487,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B12" s="5">
         <v>3</v>
@@ -1511,13 +1499,13 @@
         <v>259420</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="H12" s="7">
         <v>437</v>
@@ -1526,28 +1514,28 @@
         <v>293577</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="M12" s="7">
         <v>713</v>
       </c>
       <c r="N12" s="7">
-        <v>552996</v>
+        <v>552997</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1562,13 +1550,13 @@
         <v>566204</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="H13" s="7">
         <v>791</v>
@@ -1577,28 +1565,28 @@
         <v>544799</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="M13" s="7">
         <v>1297</v>
       </c>
       <c r="N13" s="7">
-        <v>1111003</v>
+        <v>1111004</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1613,13 +1601,13 @@
         <v>138174</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="H14" s="7">
         <v>187</v>
@@ -1628,28 +1616,28 @@
         <v>144496</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="M14" s="7">
         <v>310</v>
       </c>
       <c r="N14" s="7">
-        <v>282670</v>
+        <v>282671</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1691,7 +1679,7 @@
         <v>2320</v>
       </c>
       <c r="N15" s="7">
-        <v>1946670</v>
+        <v>1946671</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>37</v>
@@ -1705,7 +1693,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B16" s="5">
         <v>3</v>
@@ -1717,13 +1705,13 @@
         <v>200450</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="H16" s="7">
         <v>325</v>
@@ -1732,13 +1720,13 @@
         <v>332886</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="M16" s="7">
         <v>522</v>
@@ -1747,13 +1735,13 @@
         <v>533336</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1768,13 +1756,13 @@
         <v>382604</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="H17" s="7">
         <v>575</v>
@@ -1783,13 +1771,13 @@
         <v>420332</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="M17" s="7">
         <v>929</v>
@@ -1798,13 +1786,13 @@
         <v>802936</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P17" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1819,13 +1807,13 @@
         <v>81916</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="H18" s="7">
         <v>86</v>
@@ -1834,13 +1822,13 @@
         <v>69091</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="M18" s="7">
         <v>159</v>
@@ -1849,13 +1837,13 @@
         <v>151008</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1911,7 +1899,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B20" s="5">
         <v>3</v>
@@ -1923,13 +1911,13 @@
         <v>305286</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="H20" s="7">
         <v>530</v>
@@ -1938,13 +1926,13 @@
         <v>373341</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="M20" s="7">
         <v>853</v>
@@ -1953,13 +1941,13 @@
         <v>678626</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1974,13 +1962,13 @@
         <v>501680</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="F21" s="7" t="s">
-        <v>132</v>
-      </c>
       <c r="G21" s="7" t="s">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="H21" s="7">
         <v>822</v>
@@ -1989,13 +1977,13 @@
         <v>604307</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>135</v>
+        <v>54</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="M21" s="7">
         <v>1342</v>
@@ -2004,13 +1992,13 @@
         <v>1105987</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2025,13 +2013,13 @@
         <v>119584</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="H22" s="7">
         <v>162</v>
@@ -2040,13 +2028,13 @@
         <v>136186</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="M22" s="7">
         <v>287</v>
@@ -2055,13 +2043,13 @@
         <v>255771</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2129,13 +2117,13 @@
         <v>993204</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="H24" s="7">
         <v>1726</v>
@@ -2144,13 +2132,13 @@
         <v>1256032</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="M24" s="7">
         <v>2789</v>
@@ -2159,13 +2147,13 @@
         <v>2249236</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2180,13 +2168,13 @@
         <v>1771608</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="H25" s="7">
         <v>2814</v>
@@ -2195,13 +2183,13 @@
         <v>1923704</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="M25" s="7">
         <v>4565</v>
@@ -2210,13 +2198,13 @@
         <v>3695312</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2231,13 +2219,13 @@
         <v>385114</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="H26" s="7">
         <v>525</v>
@@ -2246,13 +2234,13 @@
         <v>410780</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="M26" s="7">
         <v>888</v>
@@ -2261,13 +2249,13 @@
         <v>795894</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>174</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2309,7 +2297,7 @@
         <v>8242</v>
       </c>
       <c r="N27" s="7">
-        <v>6740442</v>
+        <v>6740441</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>37</v>
@@ -2323,7 +2311,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P36_R-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{91871AC9-852B-42AE-A053-5125BDE5584A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E29281DA-B871-40AE-9DEF-741DAE128585}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A9676BEC-6099-4763-B5BC-F1BFBD645528}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9B557373-C363-4B5E-8742-E72EF0DE7A39}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>49,55%</t>
@@ -152,7 +152,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>36,44%</t>
@@ -233,7 +233,7 @@
     <t>11,84%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>26,92%</t>
@@ -317,7 +317,7 @@
     <t>16,41%</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>30,14%</t>
@@ -963,7 +963,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2E6871A-DE96-4389-ACFB-37D669310F87}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5144830-32F3-4F79-907C-59CB39194643}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
